--- a/відомість.xlsx
+++ b/відомість.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DP_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E619A-0B81-49A2-BBB8-B70F4AA3CB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07B84B-2E00-4E1E-A1F1-A472B5A6FB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88868F57-3985-4601-A44B-6E939F122A29}"/>
   </bookViews>
@@ -239,6 +239,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -682,9 +685,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -712,168 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -882,9 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -907,6 +742,180 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6B9272-13F8-4451-85FE-86D9480D94DA}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,42 +1246,43 @@
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="83"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -1284,76 +1294,80 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="30" t="s">
+      <c r="P3" s="87"/>
+      <c r="Q3" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="31"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:17" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="3"/>
+      <c r="K5" s="30">
+        <f>COUNTIF(E26:E44,"&gt;=10")</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1366,7 +1380,7 @@
       <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="59" t="s">
         <v>18</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -1384,8 +1398,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="40" t="s">
+      <c r="K6" s="30">
+        <f>COUNTIF(E26:E44,8)+COUNTIF(E26:E44,9)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="59" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1394,10 +1411,10 @@
       <c r="N6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="41"/>
+      <c r="P6" s="68"/>
       <c r="Q6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1413,35 +1430,41 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="42"/>
+      <c r="K7" s="6">
+        <f>COUNTIF(E26:E44,7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="60"/>
       <c r="M7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="41"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="68"/>
       <c r="Q7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="40" t="s">
+      <c r="K8" s="30">
+        <f>COUNTIF(E26:E44,5)+COUNTIF(E26:E44,6)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="59" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1450,37 +1473,40 @@
       <c r="N8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="68"/>
       <c r="Q8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="42"/>
+      <c r="K9" s="6">
+        <f>COUNTIF(E26:E44,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="60"/>
       <c r="M9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
       <c r="Q9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1496,23 +1522,26 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="40" t="s">
+      <c r="K10" s="67">
+        <f>COUNTIF(E26:E44,2)+COUNTIF(E26:E44,3)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="48" t="s">
+      <c r="N10" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="Q10" s="59" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1529,13 +1558,13 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -1548,54 +1577,57 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="40" t="s">
+      <c r="K12" s="61">
+        <f>COUNTIF(E26:E44,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="68"/>
+      <c r="M12" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="48" t="s">
+      <c r="N12" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="40" t="s">
+      <c r="Q12" s="59" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="1"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1608,36 +1640,36 @@
     </row>
     <row r="15" spans="1:17" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="67"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1669,20 +1701,23 @@
     </row>
     <row r="18" spans="1:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="31">
+        <f>(K5+K6+K7+K8+K9)/(K5+K6+K7+K8+K9+K10+K12)*100%</f>
+        <v>1</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1699,8 +1734,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1709,24 +1744,27 @@
     </row>
     <row r="20" spans="1:17" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="10"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="31">
+        <f>(K5+K6+K7)/(K5+K6+K7+K8+K9+K10+K12)*100%</f>
+        <v>0</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1753,7 +1791,7 @@
     </row>
     <row r="22" spans="1:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="1"/>
@@ -1764,78 +1802,78 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="22"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="2"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77" t="s">
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="75"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1846,31 +1884,31 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="78">
+      <c r="A26" s="22">
         <v>1</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24">
         <f>IF(E26=1,2,IF(E26=2,2,IF(E26=3,2,IF(AND(E26&gt;=4,E26&lt;7),3,IF(AND(E26&gt;=7,E26&lt;10),4,IF(AND(E26&gt;=10,E26&lt;13),5,"н/а"))))))</f>
         <v>3</v>
       </c>
-      <c r="D26" s="81" t="str">
+      <c r="D26" s="25" t="str">
         <f>IF(C26=2,"незадовільно",IF(C26=3,"задовільно",IF(C26=4,"добре",IF(C26=5,"відмінно","не атестовано"))))</f>
         <v>задовільно</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="26">
         <v>4</v>
       </c>
-      <c r="F26" s="84" t="str">
+      <c r="F26" s="28" t="str">
         <f>IF(E26 = 1,"один",IF(E26 = 2,"два",IF(E26 = 3,"три",IF(E26 = 4,"чотири",IF(E26 = 5,"п'ять",IF(E26 = 6,"шість",IF(E26 = 7,"сім",IF(E26 = 8,"вісім",IF(E26 = 9,"дев'ять",IF(E26 = 10,"десять",IF(E26 = 11,"одинадцять",IF(E26 = 12,"дванадцять","н/а"))))))))))))</f>
         <v>чотири</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="27">
         <f>$B$13</f>
         <v>0</v>
       </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="19"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1881,29 +1919,29 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="78">
+      <c r="A27" s="22">
         <v>2</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80" t="str">
-        <f t="shared" ref="C27:C55" si="0">IF(E27=1,2,IF(E27=2,2,IF(E27=3,2,IF(AND(E27&gt;=4,E27&lt;7),3,IF(AND(E27&gt;=7,E27&lt;10),4,IF(AND(E27&gt;=10,E27&lt;13),5,"н/а"))))))</f>
-        <v>н/а</v>
-      </c>
-      <c r="D27" s="81" t="str">
-        <f t="shared" ref="D27:D55" si="1">IF(C27=2,"незадовільно",IF(C27=3,"задовільно",IF(C27=4,"добре",IF(C27=5,"відмінно","не атестовано"))))</f>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="str">
+        <f t="shared" ref="C27:C44" si="0">IF(E27=1,2,IF(E27=2,2,IF(E27=3,2,IF(AND(E27&gt;=4,E27&lt;7),3,IF(AND(E27&gt;=7,E27&lt;10),4,IF(AND(E27&gt;=10,E27&lt;13),5,"н/а"))))))</f>
+        <v>н/а</v>
+      </c>
+      <c r="D27" s="25" t="str">
+        <f t="shared" ref="D27:D44" si="1">IF(C27=2,"незадовільно",IF(C27=3,"задовільно",IF(C27=4,"добре",IF(C27=5,"відмінно","не атестовано"))))</f>
         <v>не атестовано</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="84" t="str">
-        <f t="shared" ref="F27:F55" si="2">IF(E27 = 1,"один",IF(E27 = 2,"два",IF(E27 = 3,"три",IF(E27 = 4,"чотири",IF(E27 = 5,"п'ять",IF(E27 = 6,"шість",IF(E27 = 7,"сім",IF(E27 = 8,"вісім",IF(E27 = 9,"дев'ять",IF(E27 = 10,"десять",IF(E27 = 11,"одинадцять",IF(E27 = 12,"дванадцять","н/а"))))))))))))</f>
-        <v>н/а</v>
-      </c>
-      <c r="G27" s="83">
-        <f t="shared" ref="G27:G55" si="3">$B$13</f>
+      <c r="E27" s="26"/>
+      <c r="F27" s="28" t="str">
+        <f t="shared" ref="F27:F44" si="2">IF(E27 = 1,"один",IF(E27 = 2,"два",IF(E27 = 3,"три",IF(E27 = 4,"чотири",IF(E27 = 5,"п'ять",IF(E27 = 6,"шість",IF(E27 = 7,"сім",IF(E27 = 8,"вісім",IF(E27 = 9,"дев'ять",IF(E27 = 10,"десять",IF(E27 = 11,"одинадцять",IF(E27 = 12,"дванадцять","н/а"))))))))))))</f>
+        <v>н/а</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" ref="G27:G44" si="3">$B$13</f>
         <v>0</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="19"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1914,29 +1952,29 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="78">
+      <c r="A28" s="22">
         <v>3</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80" t="str">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D28" s="81" t="str">
+      <c r="D28" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E28" s="82"/>
-      <c r="F28" s="84" t="str">
+      <c r="E28" s="26"/>
+      <c r="F28" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G28" s="83">
+      <c r="G28" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="19"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1947,29 +1985,29 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="78">
+      <c r="A29" s="22">
         <v>4</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80" t="str">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D29" s="81" t="str">
+      <c r="D29" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="84" t="str">
+      <c r="E29" s="26"/>
+      <c r="F29" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="19"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1980,29 +2018,29 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="78">
+      <c r="A30" s="22">
         <v>5</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80" t="str">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D30" s="81" t="str">
+      <c r="D30" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="84" t="str">
+      <c r="E30" s="26"/>
+      <c r="F30" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G30" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="19"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2013,29 +2051,29 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="78">
+      <c r="A31" s="22">
         <v>6</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="80" t="str">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D31" s="81" t="str">
+      <c r="D31" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E31" s="82"/>
-      <c r="F31" s="84" t="str">
+      <c r="E31" s="26"/>
+      <c r="F31" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G31" s="83">
+      <c r="G31" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="19"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2046,29 +2084,29 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="78">
+      <c r="A32" s="22">
         <v>7</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80" t="str">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D32" s="81" t="str">
+      <c r="D32" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E32" s="82"/>
-      <c r="F32" s="84" t="str">
+      <c r="E32" s="26"/>
+      <c r="F32" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G32" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="19"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2079,29 +2117,29 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="78">
+      <c r="A33" s="22">
         <v>8</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80" t="str">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D33" s="81" t="str">
+      <c r="D33" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="84" t="str">
+      <c r="E33" s="26"/>
+      <c r="F33" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G33" s="83">
+      <c r="G33" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="85"/>
-      <c r="I33" s="19"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2112,29 +2150,29 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="78">
+      <c r="A34" s="22">
         <v>9</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80" t="str">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D34" s="81" t="str">
+      <c r="D34" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="84" t="str">
+      <c r="E34" s="26"/>
+      <c r="F34" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G34" s="83">
+      <c r="G34" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="19"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2145,29 +2183,29 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="78">
+      <c r="A35" s="22">
         <v>10</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80" t="str">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D35" s="81" t="str">
+      <c r="D35" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="84" t="str">
+      <c r="E35" s="26"/>
+      <c r="F35" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G35" s="83">
+      <c r="G35" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="19"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2178,29 +2216,29 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="78">
+      <c r="A36" s="22">
         <v>11</v>
       </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80" t="str">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D36" s="81" t="str">
+      <c r="D36" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="84" t="str">
+      <c r="E36" s="26"/>
+      <c r="F36" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G36" s="83">
+      <c r="G36" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H36" s="85"/>
-      <c r="I36" s="19"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2211,29 +2249,29 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="78">
+      <c r="A37" s="22">
         <v>12</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80" t="str">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D37" s="81" t="str">
+      <c r="D37" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="84" t="str">
+      <c r="E37" s="26"/>
+      <c r="F37" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G37" s="83">
+      <c r="G37" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H37" s="85"/>
-      <c r="I37" s="19"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2244,29 +2282,29 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="78">
+      <c r="A38" s="22">
         <v>13</v>
       </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80" t="str">
+      <c r="B38" s="23"/>
+      <c r="C38" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D38" s="81" t="str">
+      <c r="D38" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="84" t="str">
+      <c r="E38" s="26"/>
+      <c r="F38" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G38" s="83">
+      <c r="G38" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="19"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2277,29 +2315,29 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="78">
+      <c r="A39" s="22">
         <v>14</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80" t="str">
+      <c r="B39" s="23"/>
+      <c r="C39" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D39" s="81" t="str">
+      <c r="D39" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="84" t="str">
+      <c r="E39" s="26"/>
+      <c r="F39" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H39" s="85"/>
-      <c r="I39" s="19"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2310,29 +2348,29 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="78">
+      <c r="A40" s="22">
         <v>15</v>
       </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80" t="str">
+      <c r="B40" s="23"/>
+      <c r="C40" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D40" s="81" t="str">
+      <c r="D40" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="84" t="str">
+      <c r="E40" s="26"/>
+      <c r="F40" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G40" s="83">
+      <c r="G40" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H40" s="85"/>
-      <c r="I40" s="19"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2343,29 +2381,29 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="78">
+      <c r="A41" s="22">
         <v>16</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="80" t="str">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D41" s="81" t="str">
+      <c r="D41" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="84" t="str">
+      <c r="E41" s="26"/>
+      <c r="F41" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G41" s="83">
+      <c r="G41" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H41" s="85"/>
-      <c r="I41" s="19"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2376,29 +2414,29 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="78">
+      <c r="A42" s="22">
         <v>17</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="80" t="str">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D42" s="81" t="str">
+      <c r="D42" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="84" t="str">
+      <c r="E42" s="26"/>
+      <c r="F42" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H42" s="85"/>
-      <c r="I42" s="19"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2409,29 +2447,29 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="78">
+      <c r="A43" s="22">
         <v>18</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="80" t="str">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D43" s="81" t="str">
+      <c r="D43" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="84" t="str">
+      <c r="E43" s="26"/>
+      <c r="F43" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G43" s="83">
+      <c r="G43" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H43" s="85"/>
-      <c r="I43" s="19"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2442,29 +2480,29 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="78">
+      <c r="A44" s="22">
         <v>19</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="80" t="str">
+      <c r="B44" s="23"/>
+      <c r="C44" s="24" t="str">
         <f t="shared" si="0"/>
         <v>н/а</v>
       </c>
-      <c r="D44" s="81" t="str">
+      <c r="D44" s="25" t="str">
         <f t="shared" si="1"/>
         <v>не атестовано</v>
       </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="84" t="str">
+      <c r="E44" s="26"/>
+      <c r="F44" s="28" t="str">
         <f t="shared" si="2"/>
         <v>н/а</v>
       </c>
-      <c r="G44" s="83">
+      <c r="G44" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H44" s="85"/>
-      <c r="I44" s="19"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2474,30 +2512,16 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="78">
-        <v>20</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D45" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G45" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="85"/>
-      <c r="I45" s="19"/>
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2507,30 +2531,20 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="78">
-        <v>21</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D46" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G46" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="85"/>
-      <c r="I46" s="19"/>
+    <row r="46" spans="1:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2540,30 +2554,16 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="78">
-        <v>22</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D47" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G47" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="85"/>
-      <c r="I47" s="19"/>
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2573,30 +2573,16 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="78">
-        <v>23</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D48" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G48" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="85"/>
-      <c r="I48" s="19"/>
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2606,339 +2592,26 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="78">
-        <v>24</v>
-      </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D49" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G49" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="85"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="78">
-        <v>25</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D50" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G50" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="85"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="78">
-        <v>26</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D51" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G51" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="85"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="78">
-        <v>27</v>
-      </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D52" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G52" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="85"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="78">
-        <v>28</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D53" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G53" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="85"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="78">
-        <v>29</v>
-      </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D54" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G54" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="85"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="78">
-        <v>30</v>
-      </c>
-      <c r="B55" s="79"/>
-      <c r="C55" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>н/а</v>
-      </c>
-      <c r="D55" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v>не атестовано</v>
-      </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="84" t="str">
-        <f t="shared" si="2"/>
-        <v>н/а</v>
-      </c>
-      <c r="G55" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="85"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="74"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="P5:P9"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="M12:M13"/>
@@ -2952,24 +2625,26 @@
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="P5:P9"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
